--- a/data/134/DEUSTATIS/old/National accounts - Gross value added years.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - Gross value added years.xlsx
@@ -199,7 +199,7 @@
     <t>Manufacturing is part of "Industry, excluding construction".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:31:58</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:34:17</t>
   </si>
 </sst>
 </file>
@@ -1461,10 +1461,10 @@
         <v>771.438</v>
       </c>
       <c r="AF7" t="n" s="10">
-        <v>775.937</v>
+        <v>777.564</v>
       </c>
       <c r="AG7" t="n" s="10">
-        <v>714.335</v>
+        <v>715.829</v>
       </c>
     </row>
     <row r="8">
@@ -1559,10 +1559,10 @@
         <v>674.858</v>
       </c>
       <c r="AF8" t="n" s="10">
-        <v>673.706</v>
+        <v>675.19</v>
       </c>
       <c r="AG8" t="n" s="10">
-        <v>610.484</v>
+        <v>611.888</v>
       </c>
     </row>
     <row r="9">
@@ -1657,10 +1657,10 @@
         <v>148.226</v>
       </c>
       <c r="AF9" t="n" s="10">
-        <v>160.687</v>
+        <v>160.541</v>
       </c>
       <c r="AG9" t="n" s="10">
-        <v>177.794</v>
+        <v>177.643</v>
       </c>
     </row>
     <row r="10">
@@ -1755,10 +1755,10 @@
         <v>483.134</v>
       </c>
       <c r="AF10" t="n" s="10">
-        <v>501.456</v>
+        <v>501.006</v>
       </c>
       <c r="AG10" t="n" s="10">
-        <v>479.951</v>
+        <v>479.546</v>
       </c>
     </row>
     <row r="11">
@@ -1853,10 +1853,10 @@
         <v>145.925</v>
       </c>
       <c r="AF11" t="n" s="10">
-        <v>151.848</v>
+        <v>151.718</v>
       </c>
       <c r="AG11" t="n" s="10">
-        <v>153.472</v>
+        <v>153.349</v>
       </c>
     </row>
     <row r="12">
@@ -2049,10 +2049,10 @@
         <v>320.531</v>
       </c>
       <c r="AF13" t="n" s="10">
-        <v>329.535</v>
+        <v>329.222</v>
       </c>
       <c r="AG13" t="n" s="10">
-        <v>337.039</v>
+        <v>336.743</v>
       </c>
     </row>
     <row r="14">
@@ -2147,10 +2147,10 @@
         <v>353.556</v>
       </c>
       <c r="AF14" t="n" s="10">
-        <v>358.788</v>
+        <v>358.478</v>
       </c>
       <c r="AG14" t="n" s="10">
-        <v>337.407</v>
+        <v>337.134</v>
       </c>
     </row>
     <row r="15">
@@ -2245,10 +2245,10 @@
         <v>555.191</v>
       </c>
       <c r="AF15" t="n" s="10">
-        <v>583.575</v>
+        <v>583.367</v>
       </c>
       <c r="AG15" t="n" s="10">
-        <v>592.668</v>
+        <v>592.478</v>
       </c>
     </row>
     <row r="16">
@@ -2343,10 +2343,10 @@
         <v>115.56</v>
       </c>
       <c r="AF16" t="n" s="10">
-        <v>120.357</v>
+        <v>120.287</v>
       </c>
       <c r="AG16" t="n" s="10">
-        <v>111.079</v>
+        <v>111.023</v>
       </c>
     </row>
     <row r="17">
@@ -2645,10 +2645,10 @@
         <v>109.72</v>
       </c>
       <c r="AF20" t="n" s="10">
-        <v>108.79</v>
+        <v>107.97</v>
       </c>
       <c r="AG20" t="n" s="10">
-        <v>98.69</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="21">
@@ -2743,10 +2743,10 @@
         <v>108.94</v>
       </c>
       <c r="AF21" t="n" s="10">
-        <v>108.1</v>
+        <v>107.05</v>
       </c>
       <c r="AG21" t="n" s="10">
-        <v>97.26</v>
+        <v>96.32</v>
       </c>
     </row>
     <row r="22">
@@ -2841,10 +2841,10 @@
         <v>103.76</v>
       </c>
       <c r="AF22" t="n" s="10">
-        <v>103.88</v>
+        <v>104.22</v>
       </c>
       <c r="AG22" t="n" s="10">
-        <v>107.79</v>
+        <v>108.15</v>
       </c>
     </row>
     <row r="23">
@@ -2939,10 +2939,10 @@
         <v>105.61</v>
       </c>
       <c r="AF23" t="n" s="10">
-        <v>108.73</v>
+        <v>109.09</v>
       </c>
       <c r="AG23" t="n" s="10">
-        <v>103.12</v>
+        <v>103.46</v>
       </c>
     </row>
     <row r="24">
@@ -3037,10 +3037,10 @@
         <v>116.37</v>
       </c>
       <c r="AF24" t="n" s="10">
-        <v>120.36</v>
+        <v>120.74</v>
       </c>
       <c r="AG24" t="n" s="10">
-        <v>119.13</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="25">
@@ -3233,10 +3233,10 @@
         <v>101.77</v>
       </c>
       <c r="AF26" t="n" s="10">
-        <v>102.37</v>
+        <v>102.72</v>
       </c>
       <c r="AG26" t="n" s="10">
-        <v>101.92</v>
+        <v>102.27</v>
       </c>
     </row>
     <row r="27">
@@ -3331,10 +3331,10 @@
         <v>110.55</v>
       </c>
       <c r="AF27" t="n" s="10">
-        <v>110.32</v>
+        <v>110.67</v>
       </c>
       <c r="AG27" t="n" s="10">
-        <v>102.18</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="28">
@@ -3429,10 +3429,10 @@
         <v>105.11</v>
       </c>
       <c r="AF28" t="n" s="10">
-        <v>106.86</v>
+        <v>107.0</v>
       </c>
       <c r="AG28" t="n" s="10">
-        <v>103.39</v>
+        <v>103.53</v>
       </c>
     </row>
     <row r="29">
@@ -3527,10 +3527,10 @@
         <v>101.4</v>
       </c>
       <c r="AF29" t="n" s="10">
-        <v>103.11</v>
+        <v>103.32</v>
       </c>
       <c r="AG29" t="n" s="10">
-        <v>92.33</v>
+        <v>92.52</v>
       </c>
     </row>
     <row r="30">
@@ -3829,10 +3829,10 @@
         <v>763.085</v>
       </c>
       <c r="AF33" t="n" s="10">
-        <v>756.617</v>
+        <v>750.914</v>
       </c>
       <c r="AG33" t="n" s="10">
-        <v>686.373</v>
+        <v>681.227</v>
       </c>
     </row>
     <row r="34">
@@ -3927,10 +3927,10 @@
         <v>670.813</v>
       </c>
       <c r="AF34" t="n" s="10">
-        <v>665.641</v>
+        <v>659.175</v>
       </c>
       <c r="AG34" t="n" s="10">
-        <v>598.892</v>
+        <v>593.104</v>
       </c>
     </row>
     <row r="35">
@@ -4025,10 +4025,10 @@
         <v>129.604</v>
       </c>
       <c r="AF35" t="n" s="10">
-        <v>129.753</v>
+        <v>130.178</v>
       </c>
       <c r="AG35" t="n" s="10">
-        <v>134.637</v>
+        <v>135.087</v>
       </c>
     </row>
     <row r="36">
@@ -4123,10 +4123,10 @@
         <v>454.481</v>
       </c>
       <c r="AF36" t="n" s="10">
-        <v>467.908</v>
+        <v>469.457</v>
       </c>
       <c r="AG36" t="n" s="10">
-        <v>443.766</v>
+        <v>445.229</v>
       </c>
     </row>
     <row r="37">
@@ -4221,10 +4221,10 @@
         <v>146.693</v>
       </c>
       <c r="AF37" t="n" s="10">
-        <v>151.722</v>
+        <v>152.201</v>
       </c>
       <c r="AG37" t="n" s="10">
-        <v>150.172</v>
+        <v>150.638</v>
       </c>
     </row>
     <row r="38">
@@ -4417,10 +4417,10 @@
         <v>304.583</v>
       </c>
       <c r="AF39" t="n" s="10">
-        <v>306.379</v>
+        <v>307.427</v>
       </c>
       <c r="AG39" t="n" s="10">
-        <v>305.032</v>
+        <v>306.08</v>
       </c>
     </row>
     <row r="40">
@@ -4515,10 +4515,10 @@
         <v>339.227</v>
       </c>
       <c r="AF40" t="n" s="10">
-        <v>338.521</v>
+        <v>339.595</v>
       </c>
       <c r="AG40" t="n" s="10">
-        <v>313.543</v>
+        <v>314.525</v>
       </c>
     </row>
     <row r="41">
@@ -4613,10 +4613,10 @@
         <v>515.406</v>
       </c>
       <c r="AF41" t="n" s="10">
-        <v>523.987</v>
+        <v>524.673</v>
       </c>
       <c r="AG41" t="n" s="10">
-        <v>506.972</v>
+        <v>507.658</v>
       </c>
     </row>
     <row r="42">
@@ -4711,10 +4711,10 @@
         <v>109.711</v>
       </c>
       <c r="AF42" t="n" s="10">
-        <v>111.561</v>
+        <v>111.788</v>
       </c>
       <c r="AG42" t="n" s="10">
-        <v>99.897</v>
+        <v>100.103</v>
       </c>
     </row>
     <row r="43">
@@ -5013,10 +5013,10 @@
         <v>766.891</v>
       </c>
       <c r="AF46" t="n" s="10">
-        <v>764.887</v>
+        <v>759.134</v>
       </c>
       <c r="AG46" t="n" s="10">
-        <v>703.87</v>
+        <v>705.375</v>
       </c>
     </row>
     <row r="47">
@@ -5111,10 +5111,10 @@
         <v>674.067</v>
       </c>
       <c r="AF47" t="n" s="10">
-        <v>669.677</v>
+        <v>663.129</v>
       </c>
       <c r="AG47" t="n" s="10">
-        <v>606.136</v>
+        <v>607.513</v>
       </c>
     </row>
     <row r="48">
@@ -5209,10 +5209,10 @@
         <v>140.558</v>
       </c>
       <c r="AF48" t="n" s="10">
-        <v>148.389</v>
+        <v>148.878</v>
       </c>
       <c r="AG48" t="n" s="10">
-        <v>166.738</v>
+        <v>166.592</v>
       </c>
     </row>
     <row r="49">
@@ -5307,10 +5307,10 @@
         <v>476.128</v>
       </c>
       <c r="AF49" t="n" s="10">
-        <v>497.433</v>
+        <v>499.053</v>
       </c>
       <c r="AG49" t="n" s="10">
-        <v>475.583</v>
+        <v>475.17</v>
       </c>
     </row>
     <row r="50">
@@ -5405,10 +5405,10 @@
         <v>145.615</v>
       </c>
       <c r="AF50" t="n" s="10">
-        <v>150.935</v>
+        <v>151.404</v>
       </c>
       <c r="AG50" t="n" s="10">
-        <v>150.294</v>
+        <v>150.17</v>
       </c>
     </row>
     <row r="51">
@@ -5601,10 +5601,10 @@
         <v>315.228</v>
       </c>
       <c r="AF52" t="n" s="10">
-        <v>322.402</v>
+        <v>323.511</v>
       </c>
       <c r="AG52" t="n" s="10">
-        <v>328.084</v>
+        <v>327.782</v>
       </c>
     </row>
     <row r="53">
@@ -5699,10 +5699,10 @@
         <v>347.697</v>
       </c>
       <c r="AF53" t="n" s="10">
-        <v>352.848</v>
+        <v>353.95</v>
       </c>
       <c r="AG53" t="n" s="10">
-        <v>332.294</v>
+        <v>332.017</v>
       </c>
     </row>
     <row r="54">
@@ -5797,10 +5797,10 @@
         <v>537.199</v>
       </c>
       <c r="AF54" t="n" s="10">
-        <v>564.434</v>
+        <v>565.158</v>
       </c>
       <c r="AG54" t="n" s="10">
-        <v>564.637</v>
+        <v>564.448</v>
       </c>
     </row>
     <row r="55">
@@ -5895,10 +5895,10 @@
         <v>113.751</v>
       </c>
       <c r="AF55" t="n" s="10">
-        <v>117.515</v>
+        <v>117.755</v>
       </c>
       <c r="AG55" t="n" s="10">
-        <v>107.769</v>
+        <v>107.715</v>
       </c>
     </row>
     <row r="56">
@@ -6052,7 +6052,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:32:03&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:34:23&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>